--- a/data/trans_dic/P9_2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P9_2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que posee ordenador/ portátil en su vivienda actual</t>
+          <t>Población que posee ordenador/ portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>42,38%</t>
+          <t>49,05%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>48,36%</t>
+          <t>52,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>38,03%</t>
+          <t>49,79%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>42,55%</t>
+          <t>46,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,91%</t>
+          <t>49,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>45,09%</t>
+          <t>49,09%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,43; 50,45</t>
+          <t>37,6; 62,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>40,02; 58,65</t>
+          <t>42,72; 65,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,97; 42,84</t>
+          <t>41,04; 59,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>36,16; 49,1</t>
+          <t>38,31; 55,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,99; 44,09</t>
+          <t>42,41; 57,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,85; 50,5</t>
+          <t>43,07; 56,51</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>76,93%</t>
+          <t>78,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>80,1%</t>
+          <t>77,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>71,55%</t>
+          <t>74,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>74,29%</t>
+          <t>74,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>74,24%</t>
+          <t>76,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>77,2%</t>
+          <t>76,17%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,47; 80,52</t>
+          <t>69,82; 83,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>75,4; 84,01</t>
+          <t>69,8; 82,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,26; 74,92</t>
+          <t>69,0; 79,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>70,31; 77,79</t>
+          <t>68,85; 79,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>71,38; 76,66</t>
+          <t>71,52; 80,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>74,39; 80,0</t>
+          <t>71,79; 79,9</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>94,05%</t>
+          <t>95,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>96,27%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,9; 96,71</t>
+          <t>94,72; 99,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,76; 96,81</t>
+          <t>88,07; 97,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,6; 97,21</t>
+          <t>95,44; 99,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>94,05; 97,83</t>
+          <t>95,07; 98,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>93,07; 96,62</t>
+          <t>96,28; 99,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,14; 96,8</t>
+          <t>92,87; 97,89</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>75,87%</t>
+          <t>73,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>78,59%</t>
+          <t>76,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>70,48%</t>
+          <t>64,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>73,65%</t>
+          <t>66,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>73,11%</t>
+          <t>69,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>76,06%</t>
+          <t>72,01%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>72,92; 78,49</t>
+          <t>69,88; 76,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>75,25; 81,61</t>
+          <t>71,99; 81,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67,86; 72,51</t>
+          <t>61,53; 68,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>70,85; 76,29</t>
+          <t>62,77; 71,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>71,49; 74,92</t>
+          <t>66,72; 71,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,92; 78,04</t>
+          <t>68,63; 75,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>75,85%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>78,44%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>70,63%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>73,26%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>73,18%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>75,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>73,19; 78,32</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>75,14; 81,1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>68,23; 73,02</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>70,42; 75,63</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>71,3; 74,96</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>73,68; 77,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que posee ordenador/ portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>111104</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>176411</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>130301</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>197106</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>241405</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>373517</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>85165; 142073</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>144908; 222236</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>107409; 156702</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>161566; 232386</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>207041; 279283</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>327712; 430032</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>446.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>536.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>509280</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>725403</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>534178</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>746692</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1043457</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1472095</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>454416; 544559</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>650957; 773005</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>493410; 567540</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>688515; 792374</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>976977; 1095983</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1387387; 1544100</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>428.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>536.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>445745</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>679835</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>521116</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>749563</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>966863</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1429398</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>431634; 453261</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>630209; 699975</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>507468; 527653</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>731290; 760965</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>950617; 978274</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1378865; 1453430</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>608.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1202.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>723.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1548844</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1120228</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1355776</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>939778</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2904620</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2060006</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1477569; 1614369</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1049169; 1181083</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1285735; 1422438</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>880944; 999737</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2805212; 3000139</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1963262; 2148966</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1033.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>913.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1146.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1015.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2179.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1928.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2614974</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2701877</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2541372</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2633139</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5156345</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5335016</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2523203; 2700103</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2588249; 2793714</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2454915; 2627592</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2531224; 2718230</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5023610; 5281619</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5186455; 5465383</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>